--- a/hybridFramework/src/main/java/com/hybridFramework/data/TestData.xlsx
+++ b/hybridFramework/src/main/java/com/hybridFramework/data/TestData.xlsx
@@ -5,14 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bsingh5/git/POMWithPageFactoryFramework/src/main/java/com/test/automation/uiAutomation/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bsingh5/git/seleniumHybridFramework/hybridFramework/src/main/java/com/hybridFramework/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTestData" sheetId="1" r:id="rId1"/>
+    <sheet name="Registration" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>userName</t>
   </si>
@@ -45,6 +46,78 @@
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>TestData1</t>
+  </si>
+  <si>
+    <t>TestData2</t>
+  </si>
+  <si>
+    <t>TestData3</t>
+  </si>
+  <si>
+    <t>TestData4</t>
+  </si>
+  <si>
+    <t>TestData5</t>
+  </si>
+  <si>
+    <t>TestData6</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>F2</t>
   </si>
 </sst>
 </file>
@@ -387,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -496,4 +569,99 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>